--- a/data/update_raw/IO_Use_table_2021_71industry.xlsx
+++ b/data/update_raw/IO_Use_table_2021_71industry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/finnschule/Dropbox/BrownPhD/UnemploymentNetwork/data/update_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4305191-9EE9-2E4E-9D02-330ACEC5A800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16728269-A39F-144A-A411-24302E2DCCA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20220" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -359,7 +359,7 @@
     <t>VAPRO</t>
   </si>
   <si>
-    <t>Input Sector(3-digit)</t>
+    <t>Input Commodity(3-digit)</t>
   </si>
 </sst>
 </file>
@@ -772,7 +772,7 @@
   <dimension ref="A1:CO89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CX29" sqref="CX29"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/update_raw/IO_Use_table_2021_71industry.xlsx
+++ b/data/update_raw/IO_Use_table_2021_71industry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/finnschule/Dropbox/BrownPhD/UnemploymentNetwork/data/update_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16728269-A39F-144A-A411-24302E2DCCA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74458D1D-A09C-244E-8672-A1BAD6BDB302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38420" yWindow="6040" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -359,7 +359,7 @@
     <t>VAPRO</t>
   </si>
   <si>
-    <t>Input Commodity(3-digit)</t>
+    <t>3-digit_code</t>
   </si>
 </sst>
 </file>
@@ -870,6 +870,7 @@
     <col min="91" max="91" width="58.83203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="92" max="92" width="41.5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="93" max="93" width="19.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="94" max="94" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:93" ht="19" x14ac:dyDescent="0.25">
